--- a/medicine/Mort/Stadtfriedhof_de_Göttingen/Stadtfriedhof_de_Göttingen.xlsx
+++ b/medicine/Mort/Stadtfriedhof_de_Göttingen/Stadtfriedhof_de_Göttingen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stadtfriedhof_de_G%C3%B6ttingen</t>
+          <t>Stadtfriedhof_de_Göttingen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Stadtfriedhof  (cimetière de la Ville) est un des cimetières de Göttingen en  Allemagne. Il accueille les tombes de nombreuses personnalités notamment du monde universitaire et scientifique. C'est le lieu de sépulture de pas moins de huit prix Nobel : Max Born, Otto Hahn, Max von Laue, Walther Nernst, Max Planck, Otto Wallach, Adolf Windaus et 
 Richard Zsigmondy.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stadtfriedhof_de_G%C3%B6ttingen</t>
+          <t>Stadtfriedhof_de_Göttingen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Situation et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière se trouve à la limite occidentale de la ville de Göttingen et s'étend sur 36 hectares, pour environ 60 000 caveaux et emplacements d'urnes[1].
-À cause de la croissance de la population urbaine, le bourgmestre Georg Merkel décide en 1879 d'ouvrir un nouveau cimetière à Grone en dehors de la ville, et faubourg aujourd'hui. La première section, qui recouvre 7,5 hectares, est inaugurée en décembre 1881, et remplace désormais le cimetière Albani. La chapelle du cimetière réservée au culte luthérien est bâtie par l'architecte de la Ville Heinrich Gerber au tournant du siècle. Le cimetière est agrandi cinq fois, la dernière fois en 1963. En 1975, le nouveau cimetière paysager de Junkerberg accueille les sépultures des défunts de Göttingen et donc les droits de sépulture des défunts souhaitant être enterrés au Stadtfriedhof ne sont réservés qu'à ceux issus de familles y possédant déjà un caveau. La discussion se poursuit de façon récurrente de savoir s'il faut démolir la plupart des tombes, ne gardant que certaines tombes bistoriques afin d'en faire un cimetière-parc, sans que le débat ne soit tranché  [1],[2].
-On trouve des tombes de soldats russes de la Première Guerre mondiale[3]. au milieu du cimetière environ un millier de tombes de soldats et victimes de la Seconde Guerre mondiale. Un petit cimetière juif aménagé dès 1843 s'étend au nord-ouest du Stadtfriedhof[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière se trouve à la limite occidentale de la ville de Göttingen et s'étend sur 36 hectares, pour environ 60 000 caveaux et emplacements d'urnes.
+À cause de la croissance de la population urbaine, le bourgmestre Georg Merkel décide en 1879 d'ouvrir un nouveau cimetière à Grone en dehors de la ville, et faubourg aujourd'hui. La première section, qui recouvre 7,5 hectares, est inaugurée en décembre 1881, et remplace désormais le cimetière Albani. La chapelle du cimetière réservée au culte luthérien est bâtie par l'architecte de la Ville Heinrich Gerber au tournant du siècle. Le cimetière est agrandi cinq fois, la dernière fois en 1963. En 1975, le nouveau cimetière paysager de Junkerberg accueille les sépultures des défunts de Göttingen et donc les droits de sépulture des défunts souhaitant être enterrés au Stadtfriedhof ne sont réservés qu'à ceux issus de familles y possédant déjà un caveau. La discussion se poursuit de façon récurrente de savoir s'il faut démolir la plupart des tombes, ne gardant que certaines tombes bistoriques afin d'en faire un cimetière-parc, sans que le débat ne soit tranché  ,.
+On trouve des tombes de soldats russes de la Première Guerre mondiale. au milieu du cimetière environ un millier de tombes de soldats et victimes de la Seconde Guerre mondiale. Un petit cimetière juif aménagé dès 1843 s'étend au nord-ouest du Stadtfriedhof.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stadtfriedhof_de_G%C3%B6ttingen</t>
+          <t>Stadtfriedhof_de_Göttingen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,36 +559,38 @@
           <t>Sépultures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Huit Prix Nobel sont inhumés ici :
-Max Born, physique 1954 [4]
-Otto Hahn, chimie 1944 [4]
-Max von Laue, physique 1914 [4]
-Walther Nernst, chimie 1920 [4]
-Max Planck, physique 1918 [4]
-Otto Wallach, chimie 1910 [4]
-Adolf Windaus, chimie, 1928 [4]
-Richard Zsigmondy, Chemistry 1925 [4]
+Max Born, physique 1954 
+Otto Hahn, chimie 1944 
+Max von Laue, physique 1914 
+Walther Nernst, chimie 1920 
+Max Planck, physique 1918 
+Otto Wallach, chimie 1910 
+Adolf Windaus, chimie, 1928 
+Richard Zsigmondy, Chemistry 1925 
 En outre le Stadtfriedhof abrite aussi les tombes des personnalités suivantes :
-Friedrich Carl Andreas (1846-1930), iraniste et orientaliste[5]
-Lou Andreas-Salomé (1861-1937), essayiste et psychanalyste[6]
-Georg Friedrich Calsow (1857-1931), politicien, maire de Göttingen[4]
-Hermann Föge (1878-1963), juriste et politicien[4]
-David Hilbert (1862-1943), mathématicien[7]
+Friedrich Carl Andreas (1846-1930), iraniste et orientaliste
+Lou Andreas-Salomé (1861-1937), essayiste et psychanalyste
+Georg Friedrich Calsow (1857-1931), politicien, maire de Göttingen
+Hermann Föge (1878-1963), juriste et politicien
+David Hilbert (1862-1943), mathématicien
 Heinz Hilpert (1890-1967), acteur
 Friedrich Hoßbach (1894-1980), général
 Rudolf von Jhering (1818-1892), juriste
-Bruno Karl August Jung (1886-1966), maire de Göttingen[4]
-Gottfried Jungmichel (1902-1981), universitaire et politicien[4]
+Bruno Karl August Jung (1886-1966), maire de Göttingen
+Gottfried Jungmichel (1902-1981), universitaire et politicien
 Gustav Körte (1852-1917), archéologue
 Paul de Lagarde (1827-1891), philosophe et auteur du mouvement völkisch
-Walter Meyerhoff (1890-1977), juriste et homme politique[4]
+Walter Meyerhoff (1890-1977), juriste et homme politique
 Thomas Oppermann (1954-2020), homme politique SPD
 Robert Pohl (1884-1976), physicien
-Karl Schwarzschild (1873-1916), astronome et physicien[8]
-Wilhelm Eduard Weber (1804-1891), physicien[9]
-Konrat Ziegler (1884-1974), universitaire, Juste parmi les Nations[4]
+Karl Schwarzschild (1873-1916), astronome et physicien
+Wilhelm Eduard Weber (1804-1891), physicien
+Konrat Ziegler (1884-1974), universitaire, Juste parmi les Nations
 Carl Ludwig von Bar, professeur de droit
 Adolf Ellissen, homme politique et historien de la littérature politician
 Moritz Heyne, historien médiéviste et lexicographe
